--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <x:si>
     <x:t>Invoice Number</x:t>
   </x:si>
@@ -52,25 +52,40 @@
     <x:t>2018-06-30</x:t>
   </x:si>
   <x:si>
+    <x:t>0.7870176</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12345678 High St., NVAoT. 1n2u,mCbiteyr,:1R2O345 New YorAkd, New York, US</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.671021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12345.67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.5965011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>table</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.8575544</x:t>
+  </x:si>
+  <x:si>
     <x:t>0.5233984</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SW1A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0.4082212</x:t>
-  </x:si>
-  <x:si>
-    <x:t>table</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0.8472593</x:t>
   </x:si>
   <x:si>
     <x:t>Key,Value
 "Address Line 1","SW1A"</x:t>
   </x:si>
   <x:si>
+    <x:t>0.4082212</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.8472593</x:t>
+  </x:si>
+  <x:si>
     <x:t>Description</x:t>
   </x:si>
   <x:si>
@@ -105,9 +120,6 @@
   </x:si>
   <x:si>
     <x:t>0.8667136</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12345.67</x:t>
   </x:si>
   <x:si>
     <x:t>0.8835452</x:t>
@@ -159,7 +171,10 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="5">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -528,11 +543,17 @@
       <x:c r="F2" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
       <x:c r="I2" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="J2" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -592,19 +613,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E2" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="I2" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
       <x:c r="J2" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -629,54 +650,54 @@
   <x:sheetData>
     <x:row r="1" spans="1:8">
       <x:c r="A1" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F1" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G1" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H1" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8">
       <x:c r="A2" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -701,54 +722,54 @@
   <x:sheetData>
     <x:row r="1" spans="1:8">
       <x:c r="A1" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F1" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G1" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H1" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8">
       <x:c r="A2" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
